--- a/striker_players_user_assistant.xlsx
+++ b/striker_players_user_assistant.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\degef.antunes\Desktop\JoseAmerico\Soccermatics ProCourse\Project 3 v_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8921BD-7FB9-4BB0-9965-0E27056232E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B3491A-7936-4CE2-AC44-9236EF2D4D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FFBDD92F-E547-41E8-8CEE-90202023D3B8}"/>
   </bookViews>
@@ -38,18 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Assistant</t>
-  </si>
-  <si>
-    <t>P. Vegetti is a traditional target man, excelling in aerial duels and finishing chances in the box. He would be most effective in a system that relies on crossing and provides frequent service into the penalty area.
-Vegetti's main strengths are: Aerial Ability, which indicates exceptional strength in aerial duels, making him a key target in the box&lt; and Finishing and Opportunism, which suggets his finalization is strong and his opportunism are excellent, highlighting his clinical nature in scoring chances.
-Vegetti's main weaknesses are: Playmaking, indicating limited contribution to creating chances for teammates; Defensive Work Rate, since his recomposition (defensive tracking back) is weak; and Dribbling: below-average performance in dribbling, reflecting limited ability to beat defenders individually.
-Teams with a creative midfield and wingers delivering quality crosses would maximize his strengths, while his limited playmaking and defensive contributions would need to be offset by more dynamic teammates.</t>
-  </si>
-  <si>
     <t>Pablo Vegetti</t>
   </si>
   <si>
@@ -61,6 +49,18 @@
 Gabriel's main weaknesses are: Dribbling, as he shows a significant limitation in taking on defenders, reducing his effectiveness in creating chances independently;
 Involvement and Pressing, as he is below-average in terms of defensive contribution and off-the-ball movement, which may limit his fit in pressing systems; and Hold-up Play, which he is also below-average ability to hold the ball under pressure, impacting his role in link-up plays.
 Gabriel Barbosa is most effective in systems prioritizing quick transitions and a direct style of play. He thrives when he can focus on finishing chances and exploiting positional advantages in the box. However, he might struggle in styles that demand high pressing or intricate buildup play, given his weaker involvement and dribbling abilities.</t>
+  </si>
+  <si>
+    <t>Pablo Vegetti is a traditional target man, excelling in aerial duels and finishing chances in the box. He would be most effective in a system that relies on crossing and provides frequent service into the penalty area.
+Vegetti's main strengths are: Aerial Ability, which indicates exceptional strength in aerial duels, making him a key target in the box&lt; and Finishing and Opportunism, which suggets his finalization is strong and his opportunism are excellent, highlighting his clinical nature in scoring chances.
+Vegetti's main weaknesses are: Playmaking, indicating limited contribution to creating chances for teammates; Defensive Work Rate, since his recomposition (defensive tracking back) is weak; and Dribbling: below-average performance in dribbling, reflecting limited ability to beat defenders individually.
+Teams with a creative midfield and wingers delivering quality crosses would maximize his strengths, while his limited playmaking and defensive contributions would need to be offset by more dynamic teammates.</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>assistant</t>
   </si>
 </sst>
 </file>
@@ -443,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3AB4B39-B986-472E-A997-DC35BDCDFD84}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,26 +455,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
